--- a/doc/数据库文档/__课程表.xlsx
+++ b/doc/数据库文档/__课程表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>省</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最好启用定位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xx街道xx体育中心xx场地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,14 +314,6 @@
   </si>
   <si>
     <t>每课时费用（单价）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程所需积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程返还学生积分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -372,12 +356,44 @@
     <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>court_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>court</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应court_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应court里面的province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应court里面的city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应court里面的area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,14 +454,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -471,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -603,6 +611,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,29 +704,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1013,30 +1017,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.125" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="22.625" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75">
-      <c r="A1" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="A1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="15">
       <c r="A2" s="1" t="s">
@@ -1091,7 +1095,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5">
@@ -1125,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
@@ -1141,7 +1145,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5">
@@ -1157,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5">
@@ -1173,10 +1177,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5">
@@ -1188,159 +1192,171 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="15"/>
       <c r="E11" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7" t="s">
-        <v>77</v>
+    <row r="12" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="27">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="28"/>
+      <c r="D12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A13" s="5">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1">
       <c r="A14" s="5">
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="33">
       <c r="A15" s="5">
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
+      <c r="A16" s="5">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A16" s="5">
-        <v>7</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="33">
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5">
       <c r="A17" s="5">
-        <v>7</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="E17" s="7">
+        <v>99</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5">
       <c r="A18" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="E18" s="18">
+        <v>42923</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5">
       <c r="A19" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="7">
-        <v>99</v>
+        <v>56</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5">
@@ -1348,17 +1364,17 @@
         <v>9</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="18">
-        <v>42923</v>
+        <v>28</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5">
@@ -1366,180 +1382,150 @@
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>56</v>
+      <c r="D21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.65949074074074077</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5">
       <c r="A22" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>17</v>
+      <c r="E22" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5">
       <c r="A23" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0.65949074074074077</v>
+      <c r="D23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5">
       <c r="A24" s="5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5">
+      <c r="A25" s="19">
+        <v>11</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="5">
+      <c r="C25" s="19"/>
+      <c r="D25" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16.5">
+      <c r="A27" s="5">
         <v>12</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5">
-      <c r="A26" s="5">
+      <c r="B27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5">
+      <c r="A28" s="5">
         <v>13</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="19">
-        <v>11</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.5">
-      <c r="A29" s="5">
-        <v>12</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="6" t="s">
+      <c r="B28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="5">
-        <v>13</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="E28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
